--- a/biology/Zoologie/Ischionodonta_iridipennis/Ischionodonta_iridipennis.xlsx
+++ b/biology/Zoologie/Ischionodonta_iridipennis/Ischionodonta_iridipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ischionodonta iridipennis est une espèce de coléoptères de la famille des Cerambycidae. Elle est décrite par Chevrolat en 1859[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ischionodonta iridipennis est une espèce de coléoptères de la famille des Cerambycidae. Elle est décrite par Chevrolat en 1859.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ischionodonta iridipennis a été décrite pour la première fois en 1859 par l'entomologiste français Auguste Chevrolat (1799-1884) sous le protonyme de Chrysoprasis iridipennis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ischionodonta iridipennis a été décrite pour la première fois en 1859 par l'entomologiste français Auguste Chevrolat (1799-1884) sous le protonyme de Chrysoprasis iridipennis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A. Chevrolat, « Description de cinq espèces nouvelles de Coléoptères longicornes », Revue et magasin de zoologie pure et appliquée, Paris, Inconnu, vol. 11,‎ janvier 1859, p. 26-29 (ISSN 1259-6523 et 2540-5020, BNF 32859507, lire en ligne)</t>
         </is>
